--- a/modelos/OBABOL4471069/OBABOL4471069_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471069/OBABOL4471069_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45033</v>
+        <v>45016</v>
       </c>
       <c r="B2" t="n">
-        <v>55.06699682805247</v>
+        <v>64.1919948166688</v>
       </c>
       <c r="C2" t="n">
-        <v>24.29194924332707</v>
+        <v>35.68111000763788</v>
       </c>
       <c r="D2" t="n">
-        <v>86.2941233104309</v>
+        <v>92.94675908037064</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45026</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45040</v>
+        <v>45020</v>
       </c>
       <c r="B3" t="n">
-        <v>50.89850383744489</v>
+        <v>76.80462202023892</v>
       </c>
       <c r="C3" t="n">
-        <v>21.36504249207455</v>
+        <v>48.58852263302778</v>
       </c>
       <c r="D3" t="n">
-        <v>78.42700777882879</v>
+        <v>104.3250438017127</v>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45033</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45047</v>
+        <v>45026</v>
       </c>
       <c r="B4" t="n">
-        <v>46.65941695842872</v>
+        <v>59.37472752655502</v>
       </c>
       <c r="C4" t="n">
-        <v>15.87569632229012</v>
+        <v>30.8839866283563</v>
       </c>
       <c r="D4" t="n">
-        <v>73.32978162915066</v>
+        <v>85.91752430091373</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45040</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45059</v>
+        <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>61.6588075759086</v>
+        <v>53.2930168628666</v>
       </c>
       <c r="C5" t="n">
-        <v>32.48065703075716</v>
+        <v>25.44421634651046</v>
       </c>
       <c r="D5" t="n">
-        <v>92.73506330374533</v>
+        <v>81.34208796398467</v>
       </c>
       <c r="E5" t="n">
         <v>44</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45055</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B6" t="n">
+        <v>49.25945670640372</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.30383291928203</v>
+      </c>
+      <c r="D6" t="n">
+        <v>77.79226958528291</v>
+      </c>
+      <c r="E6" t="n">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B7" t="n">
+        <v>45.23354815917705</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.05334532587341</v>
+      </c>
+      <c r="D7" t="n">
+        <v>72.74524514836556</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B8" t="n">
+        <v>58.69526301983279</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.63407902117823</v>
+      </c>
+      <c r="D8" t="n">
+        <v>85.82947324016348</v>
+      </c>
+      <c r="E8" t="n">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B6" t="n">
-        <v>54.05920659747968</v>
-      </c>
-      <c r="C6" t="n">
-        <v>26.31297364461785</v>
-      </c>
-      <c r="D6" t="n">
-        <v>82.33820876039238</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B9" t="n">
+        <v>55.26127947810198</v>
+      </c>
+      <c r="C9" t="n">
+        <v>28.05877198039584</v>
+      </c>
+      <c r="D9" t="n">
+        <v>81.46500283620517</v>
+      </c>
+      <c r="E9" t="n">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -582,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,54 +694,80 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>311.8334850029671</v>
+        <v>948.9247378097888</v>
       </c>
       <c r="C2" t="n">
-        <v>17.6588075759086</v>
+        <v>30.80462202023892</v>
       </c>
       <c r="D2" t="n">
-        <v>17.6588075759086</v>
+        <v>30.80462202023892</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4013365358161046</v>
+        <v>0.6696656960921505</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4013365358161046</v>
+        <v>0.6696656960921505</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3342609666160005</v>
+        <v>0.5016850589737923</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>400.6016842158976</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20.01503645302445</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.44362891825079</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4693915604337326</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4693915604337326</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3752825154297735</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>472.6317937701285</v>
-      </c>
-      <c r="C3" t="n">
-        <v>21.74009645264088</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.59132257613708</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.789413990051028</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2783062485843886</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4561935224501761</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.75</v>
+      <c r="B4" t="n">
+        <v>404.2497683386218</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20.10596350187232</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.39098648295005</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6676831525786202</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2461075306803824</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.39156089145244</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7999999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBABOL4471069/OBABOL4471069_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471069/OBABOL4471069_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="B2" t="n">
-        <v>64.1919948166688</v>
+        <v>79.51305539440266</v>
       </c>
       <c r="C2" t="n">
-        <v>35.68111000763788</v>
+        <v>52.15026595369444</v>
       </c>
       <c r="D2" t="n">
-        <v>92.94675908037064</v>
+        <v>110.926696271563</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45012</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45020</v>
+        <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>76.80462202023892</v>
+        <v>68.51117495219945</v>
       </c>
       <c r="C3" t="n">
-        <v>48.58852263302778</v>
+        <v>38.24754006092947</v>
       </c>
       <c r="D3" t="n">
-        <v>104.3250438017127</v>
+        <v>99.3261571210525</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45019</v>
@@ -513,121 +513,101 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B4" t="n">
+        <v>61.04816736446237</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30.30272657638972</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90.7505702354934</v>
+      </c>
+      <c r="E4" t="n">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>45026</v>
-      </c>
-      <c r="B4" t="n">
-        <v>59.37472752655502</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30.8839866283563</v>
-      </c>
-      <c r="D4" t="n">
-        <v>85.91752430091373</v>
-      </c>
-      <c r="E4" t="n">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56.25430771431133</v>
+      </c>
+      <c r="C5" t="n">
+        <v>27.5810824103836</v>
+      </c>
+      <c r="D5" t="n">
+        <v>85.55371300619942</v>
+      </c>
+      <c r="E5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>45033</v>
-      </c>
-      <c r="B5" t="n">
-        <v>53.2930168628666</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25.44421634651046</v>
-      </c>
-      <c r="D5" t="n">
-        <v>81.34208796398467</v>
-      </c>
-      <c r="E5" t="n">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B6" t="n">
+        <v>51.28627335087099</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.73455202296799</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80.20294276541483</v>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>45040</v>
-      </c>
-      <c r="B6" t="n">
-        <v>49.25945670640372</v>
-      </c>
-      <c r="C6" t="n">
-        <v>22.30383291928203</v>
-      </c>
-      <c r="D6" t="n">
-        <v>77.79226958528291</v>
-      </c>
-      <c r="E6" t="n">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45033</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45047</v>
+        <v>45059</v>
       </c>
       <c r="B7" t="n">
-        <v>45.23354815917705</v>
+        <v>60.03372492027288</v>
       </c>
       <c r="C7" t="n">
-        <v>17.05334532587341</v>
+        <v>31.20371688912061</v>
       </c>
       <c r="D7" t="n">
-        <v>72.74524514836556</v>
+        <v>91.1947271231672</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45040</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="B8" t="n">
-        <v>58.69526301983279</v>
+        <v>56.21317963991604</v>
       </c>
       <c r="C8" t="n">
-        <v>31.63407902117823</v>
+        <v>25.33700681531629</v>
       </c>
       <c r="D8" t="n">
-        <v>85.82947324016348</v>
+        <v>85.03969519259851</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45055</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B9" t="n">
-        <v>55.26127947810198</v>
-      </c>
-      <c r="C9" t="n">
-        <v>28.05877198039584</v>
-      </c>
-      <c r="D9" t="n">
-        <v>81.46500283620517</v>
-      </c>
-      <c r="E9" t="n">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -697,22 +677,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>948.9247378097888</v>
+        <v>1123.124881868301</v>
       </c>
       <c r="C2" t="n">
-        <v>30.80462202023892</v>
+        <v>33.51305539440266</v>
       </c>
       <c r="D2" t="n">
-        <v>30.80462202023892</v>
+        <v>33.51305539440266</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6696656960921505</v>
+        <v>0.7285446824870142</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6696656960921505</v>
+        <v>0.7285446824870142</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5016850589737923</v>
+        <v>0.534017043710613</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -723,22 +703,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>400.6016842158976</v>
+        <v>257.0803348189796</v>
       </c>
       <c r="C3" t="n">
-        <v>20.01503645302445</v>
+        <v>16.03372492027288</v>
       </c>
       <c r="D3" t="n">
-        <v>19.44362891825079</v>
+        <v>16.03372492027288</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4693915604337326</v>
+        <v>0.364402839097111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4693915604337326</v>
+        <v>0.364402839097111</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3752825154297735</v>
+        <v>0.308240908081691</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -749,22 +729,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>404.2497683386218</v>
+        <v>517.60424845226</v>
       </c>
       <c r="C4" t="n">
-        <v>20.10596350187232</v>
+        <v>22.75091752989887</v>
       </c>
       <c r="D4" t="n">
-        <v>16.39098648295005</v>
+        <v>20.14811126400365</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6676831525786202</v>
+        <v>0.7663570744610242</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2461075306803824</v>
+        <v>0.3874583491923266</v>
       </c>
       <c r="G4" t="n">
-        <v>0.39156089145244</v>
+        <v>0.4500477881860605</v>
       </c>
       <c r="H4" t="n">
         <v>0.7999999999999998</v>

--- a/modelos/OBABOL4471069/OBABOL4471069_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471069/OBABOL4471069_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="B2" t="n">
-        <v>79.51305539440266</v>
+        <v>64.19199481666558</v>
       </c>
       <c r="C2" t="n">
-        <v>52.15026595369444</v>
+        <v>34.20719429177023</v>
       </c>
       <c r="D2" t="n">
-        <v>110.926696271563</v>
+        <v>93.05317077250261</v>
       </c>
       <c r="E2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45026</v>
+        <v>45020</v>
       </c>
       <c r="B3" t="n">
-        <v>68.51117495219945</v>
+        <v>76.80462202023641</v>
       </c>
       <c r="C3" t="n">
-        <v>38.24754006092947</v>
+        <v>47.35779888263983</v>
       </c>
       <c r="D3" t="n">
-        <v>99.3261571210525</v>
+        <v>103.6644084849012</v>
       </c>
       <c r="E3" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45019</v>
@@ -513,101 +513,121 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
       <c r="B4" t="n">
-        <v>61.04816736446237</v>
+        <v>59.37472752655243</v>
       </c>
       <c r="C4" t="n">
-        <v>30.30272657638972</v>
+        <v>30.51245404236564</v>
       </c>
       <c r="D4" t="n">
-        <v>90.7505702354934</v>
+        <v>87.07973132369011</v>
       </c>
       <c r="E4" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>56.25430771431133</v>
+        <v>53.29301686286845</v>
       </c>
       <c r="C5" t="n">
-        <v>27.5810824103836</v>
+        <v>25.51628069010476</v>
       </c>
       <c r="D5" t="n">
-        <v>85.55371300619942</v>
+        <v>81.89156986937425</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45047</v>
+        <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>51.28627335087099</v>
+        <v>49.2594567119715</v>
       </c>
       <c r="C6" t="n">
-        <v>22.73455202296799</v>
+        <v>21.68187500089901</v>
       </c>
       <c r="D6" t="n">
-        <v>80.20294276541483</v>
+        <v>76.98512042488262</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45059</v>
+        <v>45047</v>
       </c>
       <c r="B7" t="n">
-        <v>60.03372492027288</v>
+        <v>45.2335481586405</v>
       </c>
       <c r="C7" t="n">
-        <v>31.20371688912061</v>
+        <v>16.82169391442572</v>
       </c>
       <c r="D7" t="n">
-        <v>91.1947271231672</v>
+        <v>73.86918335308118</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45055</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B8" t="n">
+        <v>58.6952623358995</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.16777102618317</v>
+      </c>
+      <c r="D8" t="n">
+        <v>85.27751344219323</v>
+      </c>
+      <c r="E8" t="n">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B8" t="n">
-        <v>56.21317963991604</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25.33700681531629</v>
-      </c>
-      <c r="D8" t="n">
-        <v>85.03969519259851</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="B9" t="n">
+        <v>55.26127877902314</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.02274184605944</v>
+      </c>
+      <c r="D9" t="n">
+        <v>82.11237998120521</v>
+      </c>
+      <c r="E9" t="n">
         <v>16</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -677,22 +697,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1123.124881868301</v>
+        <v>948.9247378096338</v>
       </c>
       <c r="C2" t="n">
-        <v>33.51305539440266</v>
+        <v>30.80462202023641</v>
       </c>
       <c r="D2" t="n">
-        <v>33.51305539440266</v>
+        <v>30.80462202023641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7285446824870142</v>
+        <v>0.6696656960920958</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7285446824870142</v>
+        <v>0.6696656960920958</v>
       </c>
       <c r="G2" t="n">
-        <v>0.534017043710613</v>
+        <v>0.5016850589737617</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,22 +723,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>257.0803348189796</v>
+        <v>400.6016741652405</v>
       </c>
       <c r="C3" t="n">
-        <v>16.03372492027288</v>
+        <v>20.01503620194679</v>
       </c>
       <c r="D3" t="n">
-        <v>16.03372492027288</v>
+        <v>19.44362857628254</v>
       </c>
       <c r="E3" t="n">
-        <v>0.364402839097111</v>
+        <v>0.4693915526617232</v>
       </c>
       <c r="F3" t="n">
-        <v>0.364402839097111</v>
+        <v>0.4693915526617232</v>
       </c>
       <c r="G3" t="n">
-        <v>0.308240908081691</v>
+        <v>0.3752825097229112</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -729,22 +749,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>517.60424845226</v>
+        <v>404.2497573859464</v>
       </c>
       <c r="C4" t="n">
-        <v>22.75091752989887</v>
+        <v>20.10596322949852</v>
       </c>
       <c r="D4" t="n">
-        <v>20.14811126400365</v>
+        <v>16.390986344355</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7663570744610242</v>
+        <v>0.6676831438704744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3874583491923266</v>
+        <v>0.2461075306893249</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4500477881860605</v>
+        <v>0.3915608897149709</v>
       </c>
       <c r="H4" t="n">
         <v>0.7999999999999998</v>
